--- a/entertainment_tool.xlsx
+++ b/entertainment_tool.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="4755" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="4755" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Top Tier Tabs" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>name</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>Encore</t>
+  </si>
+  <si>
+    <t>subtab</t>
   </si>
 </sst>
 </file>
@@ -556,7 +559,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -657,10 +660,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -669,16 +672,19 @@
     <col min="2" max="2" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -691,7 +697,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>

--- a/entertainment_tool.xlsx
+++ b/entertainment_tool.xlsx
@@ -12,13 +12,17 @@
     <sheet name="Channels" sheetId="2" r:id="rId3"/>
     <sheet name="Selling Points" sheetId="4" r:id="rId4"/>
     <sheet name="Objections" sheetId="5" r:id="rId5"/>
+    <sheet name="Calendars" sheetId="6" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="SUM">Calendars!$J$3</definedName>
+  </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="212">
   <si>
     <t>name</t>
   </si>
@@ -93,13 +97,574 @@
   </si>
   <si>
     <t>subtab</t>
+  </si>
+  <si>
+    <t>Program</t>
+  </si>
+  <si>
+    <t>Premium</t>
+  </si>
+  <si>
+    <t>Channel name</t>
+  </si>
+  <si>
+    <t>Channel #</t>
+  </si>
+  <si>
+    <t>Premiere date</t>
+  </si>
+  <si>
+    <t>Day of week (for series)</t>
+  </si>
+  <si>
+    <t>Finale date (for series)</t>
+  </si>
+  <si>
+    <t>Replay dates (for movies)</t>
+  </si>
+  <si>
+    <t>On Demand channel</t>
+  </si>
+  <si>
+    <t>On Demand Start date</t>
+  </si>
+  <si>
+    <t>Key Demographics</t>
+  </si>
+  <si>
+    <t>Genres</t>
+  </si>
+  <si>
+    <t>Star Actors</t>
+  </si>
+  <si>
+    <t>Star Directors</t>
+  </si>
+  <si>
+    <t>Star Producers</t>
+  </si>
+  <si>
+    <t>Description (&lt;200 characters)</t>
+  </si>
+  <si>
+    <t>Image filename</t>
+  </si>
+  <si>
+    <t>Shameless</t>
+  </si>
+  <si>
+    <t>Showtime</t>
+  </si>
+  <si>
+    <t>Showtime East HD</t>
+  </si>
+  <si>
+    <t>545</t>
+  </si>
+  <si>
+    <t>011016</t>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>040316</t>
+  </si>
+  <si>
+    <t>1545</t>
+  </si>
+  <si>
+    <t>adults 18-49</t>
+  </si>
+  <si>
+    <t>Comedy</t>
+  </si>
+  <si>
+    <t>William H. Macy and Emmy Rossum</t>
+  </si>
+  <si>
+    <t>The Gallagher's are finally getting their act together and striking out on their own, but growing up could also mean growing apart.</t>
+  </si>
+  <si>
+    <t>Shameless Season 6 Version B Key Art - Horizontal</t>
+  </si>
+  <si>
+    <t>Billions</t>
+  </si>
+  <si>
+    <t>011716</t>
+  </si>
+  <si>
+    <t>041016</t>
+  </si>
+  <si>
+    <t>adults 35+</t>
+  </si>
+  <si>
+    <t>Drama</t>
+  </si>
+  <si>
+    <t>Paul Giamatti and Damien Lewis</t>
+  </si>
+  <si>
+    <t>Paul Giamatti and Damien Lewis star in this complex drama about power politics in the world of New York high finance.</t>
+  </si>
+  <si>
+    <t>Billions Season 1 Key Art (Horizontal)</t>
+  </si>
+  <si>
+    <t>Dark Net</t>
+  </si>
+  <si>
+    <t>012116</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Documentary</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DARK NET will explore unique themes of the web and uncover different tales of real people who have been affected by them. </t>
+  </si>
+  <si>
+    <t>Dark Net Key Art</t>
+  </si>
+  <si>
+    <t>The Circus: Inside the Greatest Political Show on Earth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Showtime </t>
+  </si>
+  <si>
+    <t xml:space="preserve">News/Documentary </t>
+  </si>
+  <si>
+    <t>Showtime is jumping into politics in THE CIRCUS: INSIDE THE GREATEST POLITICAL SHOW ON EARTH, a series which provides intimate behind the scenes access to the high human drama inherent in the pursuit of the Oval Office.</t>
+  </si>
+  <si>
+    <t>TheCircus</t>
+  </si>
+  <si>
+    <t>The Imitation Game</t>
+  </si>
+  <si>
+    <t>011516</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>012116, 012716, 013016</t>
+  </si>
+  <si>
+    <t>Historical Drama</t>
+  </si>
+  <si>
+    <t>Benedict Cumberbatch and Keira Knightley</t>
+  </si>
+  <si>
+    <t>During World War II, mathematician Alan Turing tries to crack the enigma code with help from fellow mathematicians.</t>
+  </si>
+  <si>
+    <t>Imitation Game, The - unit 1</t>
+  </si>
+  <si>
+    <t>The Hundred-Foot Journey</t>
+  </si>
+  <si>
+    <t>010816</t>
+  </si>
+  <si>
+    <t>011116, 011616, 012116</t>
+  </si>
+  <si>
+    <t>Helen Mirren</t>
+  </si>
+  <si>
+    <t>The Kadam family leaves India for France where they open a restaurant directly across the road from Madame Mallory's Michelin-starred eatery.</t>
+  </si>
+  <si>
+    <t>Hundred-Foot Journey, The - Key Art (horizontal)</t>
+  </si>
+  <si>
+    <t>Drunk Stoned Brilliant Dead: The Story of the National Lampoon</t>
+  </si>
+  <si>
+    <t>012216</t>
+  </si>
+  <si>
+    <t>012716</t>
+  </si>
+  <si>
+    <t>DRUNK STONED BRILLIANT DEAD tells the story of how America’s first adult humor magazine, changed comedy forever before the magazine’s spectacular fall.</t>
+  </si>
+  <si>
+    <t>Drunk stoned brilliant dead... - unit 1</t>
+  </si>
+  <si>
+    <t>Inside the NFL</t>
+  </si>
+  <si>
+    <t>010516</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Sports</t>
+  </si>
+  <si>
+    <t>The Emmy winning weekly show with the most experienced and connected analysts in the business. Get expert insight, exclusive commentary and special on and off the field features.</t>
+  </si>
+  <si>
+    <t>Inside the NFL S8 (Horizontal)</t>
+  </si>
+  <si>
+    <t>60 Minutes Sports</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The award-winning team behind 60 Minutes now turns its investigative eye towards the world of sports. </t>
+  </si>
+  <si>
+    <t>60 Minutes Sports Key Art - Horizontal</t>
+  </si>
+  <si>
+    <t>SHO Champtionship Boxing</t>
+  </si>
+  <si>
+    <t>011616</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>Undefeated WBC Heavyweight World Champion Deontay Wilder will make the third defense of his title against brawling Polish contender Artur Szpilka.</t>
+  </si>
+  <si>
+    <t>Wilder horizontal</t>
+  </si>
+  <si>
+    <t>The To Do List</t>
+  </si>
+  <si>
+    <t>THE MOVIE CHANNEL XTRA</t>
+  </si>
+  <si>
+    <t>555</t>
+  </si>
+  <si>
+    <t>010416</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>010916, 011216</t>
+  </si>
+  <si>
+    <t>Aubrey Plaza, Rachel Bilson and Andy Samberg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All-star comedy about a type-A teenage girl who tries to shed her uptight image by undertaking a list of all the outrageous activities she missed out on in high school, before she goes to college.  </t>
+  </si>
+  <si>
+    <t>Camp X-Ray</t>
+  </si>
+  <si>
+    <t>THE MOVIE CHANNEL</t>
+  </si>
+  <si>
+    <t>543 (East) 544 (West)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kristin Stewart </t>
+  </si>
+  <si>
+    <t>Kristen Stewart stars as a young woman who joins the military to escape her small town roots but ends up as a rookie guard at Guantanamo Bay where she strikes up an unusual and life changing friendship with one of the detainees.</t>
+  </si>
+  <si>
+    <t>The Lovely Bones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THE MOVIE CHANNEL </t>
+  </si>
+  <si>
+    <t>010116</t>
+  </si>
+  <si>
+    <t>010316,010516,010816</t>
+  </si>
+  <si>
+    <t>Mystery/Thriller</t>
+  </si>
+  <si>
+    <t>Peter Jackson directs this extraordinary story narrated by a murdered 14-year-old girl from a strange and beautiful in-between afterlife, who must help her father catch her killer and protect her family before she can move on.</t>
+  </si>
+  <si>
+    <t>Frank Miller's Sin City: A Dame to Kill For</t>
+  </si>
+  <si>
+    <t>010216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saturday </t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Jessica Alba, Joseph Gordon-Levitt and Eva Green</t>
+  </si>
+  <si>
+    <t>Frank Miller's classic graphic novels return to the screen, weaving together gritty tales that feature Basin City's most hardboiled citizens as they cross paths with the town's more notorious inhabitants. </t>
+  </si>
+  <si>
+    <t>Need for Speed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Showtime Extreme </t>
+  </si>
+  <si>
+    <t>549</t>
+  </si>
+  <si>
+    <t>010316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sunday </t>
+  </si>
+  <si>
+    <t>Aaron Paul and Dominic Cooper</t>
+  </si>
+  <si>
+    <t>Aaron Paul stars as a street racer who was framed by a wealthy business associate. Now, fresh from prison, he gets his hands on the fastest car around and joins a secretive and extremely high stakes race with revenge in mind.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snowpiercer </t>
+  </si>
+  <si>
+    <t>Showtime Beyond</t>
+  </si>
+  <si>
+    <t>550</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Friday </t>
+  </si>
+  <si>
+    <t>010516,010716,011016</t>
+  </si>
+  <si>
+    <t>Chris Evans</t>
+  </si>
+  <si>
+    <t>Set in a future where a failed climate-change experiment kills all life on the planet, a lucky few board a train that endlessly circles the icy globe with a cruel and dangerous class hierarchy separating the front and back passengers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vampire Academy </t>
+  </si>
+  <si>
+    <t>Teen Drama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zoey Deutch </t>
+  </si>
+  <si>
+    <t>Rose Hathaway is a Dhampir, half human-half vampire, a guardian of the Moroi, peaceful, mortal vampires living discreetly within our world. Her calling is to protect the Moroi from bloodthirsty, immortal Vampires, the Strigoi.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meet Joe Black </t>
+  </si>
+  <si>
+    <t>FLIX</t>
+  </si>
+  <si>
+    <t>556</t>
+  </si>
+  <si>
+    <t>010616, 011916, 012516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brad Pitt </t>
+  </si>
+  <si>
+    <t>Death, who takes the form of a young man, asks a media mogul to act as a guide to teach him about life on Earth and in the process he falls in love with his guide's daughter</t>
+  </si>
+  <si>
+    <t>program</t>
+  </si>
+  <si>
+    <t>chanName</t>
+  </si>
+  <si>
+    <t>chanNum</t>
+  </si>
+  <si>
+    <t>dayWeek</t>
+  </si>
+  <si>
+    <t>finDate</t>
+  </si>
+  <si>
+    <t>repDates</t>
+  </si>
+  <si>
+    <t>startOD</t>
+  </si>
+  <si>
+    <t>keyDemos</t>
+  </si>
+  <si>
+    <t>genres</t>
+  </si>
+  <si>
+    <t>starActrs</t>
+  </si>
+  <si>
+    <t>starDrctrs</t>
+  </si>
+  <si>
+    <t>starPrdcrs</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>HBO</t>
+  </si>
+  <si>
+    <t>http://agentanswercenter.directv.com/en-us/res/programming/hbo.html</t>
+  </si>
+  <si>
+    <t>http://www.directv.com/premiums/hbo</t>
+  </si>
+  <si>
+    <t>http://www.hbo.com/</t>
+  </si>
+  <si>
+    <t>http://agentanswercenter.directv.com/en-us/res//programming/showtime_unlimited.html</t>
+  </si>
+  <si>
+    <t>http://www.directv.com/premiums/showtime</t>
+  </si>
+  <si>
+    <t>http://www.sho.com/sho/home</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>Showtime East</t>
+  </si>
+  <si>
+    <t>East Coast feed. Experience the ultimate in home theater entertainment with Showtime.</t>
+  </si>
+  <si>
+    <t>Thirteen commercial-free channels with award winning original series, uncut hit movies, year round sports, documentaries and comedy specials</t>
+  </si>
+  <si>
+    <t>evergreen</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>The Who Live in Hyde Park</t>
+  </si>
+  <si>
+    <t>Catch the famous 50th anniversary tour with the legendary rock band. (12/4)</t>
+  </si>
+  <si>
+    <t>Price/Value</t>
+  </si>
+  <si>
+    <t>In-home entertainment is more affordable than going to the movies or getting movies through rental services</t>
+  </si>
+  <si>
+    <t>The same amount of titles would cost over $150 a month with Red Box</t>
+  </si>
+  <si>
+    <t>Too Many Repeats</t>
+  </si>
+  <si>
+    <t>If you missed it on HBO East, it can be seen later on another HBO network</t>
+  </si>
+  <si>
+    <t>New movies debut frequently, with a guaranteed blockbuster premiere every Saturday</t>
+  </si>
+  <si>
+    <t>All HBO channels air a variety of shows at different times to reduce repeats</t>
+  </si>
+  <si>
+    <t>Over 20 currently running original shows, plus former hits like Flight of the Conchords air throughout the month, so there are few repeats</t>
+  </si>
+  <si>
+    <t>Mark Wahlberg, Rachel Weisz, Susan Sarandon</t>
+  </si>
+  <si>
+    <t>Frank</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>DIRECTV Everywhere is great</t>
+  </si>
+  <si>
+    <t>Showtime Anytime isn't as great, but still pretty good</t>
+  </si>
+  <si>
+    <t>premDate (YYYY-mm-dd)</t>
+  </si>
+  <si>
+    <t>logo</t>
+  </si>
+  <si>
+    <t>Cinema</t>
+  </si>
+  <si>
+    <t>4K</t>
+  </si>
+  <si>
+    <t>Cineam</t>
+  </si>
+  <si>
+    <t>3D</t>
+  </si>
+  <si>
+    <t>Linear</t>
+  </si>
+  <si>
+    <t>On Demand</t>
+  </si>
+  <si>
+    <t>Remote</t>
+  </si>
+  <si>
+    <t>ESPN College Extra</t>
+  </si>
+  <si>
+    <t>Bases Loaded</t>
+  </si>
+  <si>
+    <t>Your ultimate viewing experience for the NCAA Softball and Baseball Championship Regionals, taking the viewer to the best action across sites from around the country. The channel is available all day throughout the Regional round.</t>
+  </si>
+  <si>
+    <t>Ordering</t>
+  </si>
+  <si>
+    <t>Channels whatsegversd</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,8 +680,57 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -183,6 +797,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -193,10 +825,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -208,9 +843,46 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="14" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="14" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="7" fillId="13" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="13" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2 2" xfId="3"/>
+    <cellStyle name="Normal 3" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -509,27 +1181,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="84.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -547,6 +1219,49 @@
       </c>
       <c r="F2" s="2" t="s">
         <v>9</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E3">
+        <v>17.989999999999998</v>
+      </c>
+      <c r="F3">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D4" t="s">
+        <v>176</v>
+      </c>
+      <c r="E4">
+        <v>13.99</v>
+      </c>
+      <c r="F4">
+        <v>1545</v>
       </c>
     </row>
   </sheetData>
@@ -557,10 +1272,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -568,47 +1283,50 @@
     <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B2" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -620,23 +1338,28 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="71.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" customWidth="1"/>
+    <col min="6" max="6" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -647,10 +1370,74 @@
         <v>6</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>8</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="D3">
+        <v>545</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B5" t="s">
+        <v>201</v>
+      </c>
+      <c r="D5">
+        <v>11013</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>205</v>
+      </c>
+      <c r="D7">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
@@ -660,24 +1447,27 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="61.5703125" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -685,26 +1475,136 @@
         <v>24</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>13</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>195</v>
+      </c>
+      <c r="D5" t="s">
+        <v>196</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>195</v>
+      </c>
+      <c r="D6" t="s">
+        <v>197</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C7" t="s">
+        <v>208</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>200</v>
+      </c>
+      <c r="B8" t="s">
+        <v>210</v>
+      </c>
+      <c r="C8" t="s">
+        <v>206</v>
+      </c>
+      <c r="D8" t="s">
+        <v>211</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="3" max="3" width="100.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -723,6 +1623,911 @@
         <v>15</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C7" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>170</v>
+      </c>
+      <c r="B8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C8" t="s">
+        <v>192</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.140625" style="18" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" style="12" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26" style="12" customWidth="1"/>
+    <col min="9" max="10" width="19.7109375" style="12" customWidth="1"/>
+    <col min="11" max="11" width="21.140625" style="12" customWidth="1"/>
+    <col min="12" max="12" width="22.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.140625" style="18" customWidth="1"/>
+    <col min="14" max="14" width="17" style="12" customWidth="1"/>
+    <col min="15" max="15" width="34.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="60.85546875" style="12" customWidth="1"/>
+    <col min="17" max="17" width="17" style="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="P1" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q1" s="20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="J2" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="L2" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="M2" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="N2" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="O2" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="P2" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" s="11"/>
+      <c r="I3" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q3" s="15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" s="11"/>
+      <c r="I4" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="P4" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q4" s="15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="M5" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="P5" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q5" s="16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" s="13"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="M6" s="11"/>
+      <c r="P6" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q6" s="16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" s="13"/>
+      <c r="H7" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="P7" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q7" s="17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G8" s="13"/>
+      <c r="H8" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="L8" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="M8" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="P8" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q8" s="17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9" s="13"/>
+      <c r="H9" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="P9" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q9" s="17" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="G10" s="13"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="L10" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="P10" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q10" s="17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="G11" s="13"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="L11" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="P11" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q11" s="17" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="G12" s="13"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="L12" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="P12" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q12" s="17" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="L13" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="M13" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="P13" s="14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="L14" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="M14" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="P14" s="14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="L15" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="M15" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="P15" s="14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="L16" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="M16" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="N16" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="P16" s="14" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="J17" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="L17" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="M17" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="P17" s="14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="L18" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="M18" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="P18" s="14" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="J19" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="L19" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="M19" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="P19" s="14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="J20" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="L20" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="M20" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="P20" s="14" t="s">
+        <v>156</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
